--- a/similarities/split_global/harmonic_similarity_timestamps_121.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_121.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48'), ('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:01:04.514625', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:21.180000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A:7', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Ab:7', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+          <t>('0:00:38.689000', '0:00:45.633000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:01:55.080000', '0:02:01.030000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:22.660000')]</t>
+          <t>('0:00:01.140000', '0:00:09.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+          <t>('0:00:50.820000', '0:01:04.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=50.82</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Ab:7']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:04.830000', '0:00:08.100000')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:14.400000', '0:00:20.600000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:00:52.680839', '0:00:55.420793')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:11.860000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A/3', 'D/7', 'G/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:03:07.440000', '0:03:10.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000'), ('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:01.257000', '0:01:04.972000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=61.257</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Db', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:49.860000', '0:01:58.640000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:03.040000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.04</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+          <t>('0:00:39.300000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:08.160000', '0:02:09.880000')]</t>
+          <t>('0:00:00.220000', '0:00:08.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=39.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=128.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.060000', '0:00:32.500000')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:01:12.962000', '0:01:18.387000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+          <t>('0:00:05.370181', '0:00:11.175170')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=72.962</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=5.370181</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42')]</t>
+          <t>('0:00:43.880000', '0:00:48.020000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:33.940000', '0:00:38.620000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=33.94']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
